--- a/script for conc.xlsx
+++ b/script for conc.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yauhen\Desktop\ВРФ\скрипт по концевикам\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\nik\Big\Gas_ym\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -577,8 +577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -644,7 +644,7 @@
         <v>18</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -680,7 +680,7 @@
         <v>18</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -962,7 +962,7 @@
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="F23" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1228,7 +1228,7 @@
       <c r="D40" s="7"/>
       <c r="E40" s="5"/>
       <c r="F40" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
